--- a/Course II/АД/xlsx/Пробное тестирование Excel.xlsx
+++ b/Course II/АД/xlsx/Пробное тестирование Excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\2 курс\АД\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCCB3C8-14DA-42DD-961E-F49F1A8C8E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -179,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,25 +495,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -533,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.35</v>
       </c>
@@ -548,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -562,7 +556,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -579,7 +573,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -588,7 +582,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -609,12 +603,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -622,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -631,7 +625,7 @@
         <v>4.11522633744856E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -640,7 +634,7 @@
         <v>10.428571428571429</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -650,12 +644,12 @@
         <v>3.4285714285714284</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -663,7 +657,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -671,7 +665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -679,7 +673,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -688,12 +682,12 @@
         <v>5.7703982711675178E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -710,7 +704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -733,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -742,7 +736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -751,7 +745,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -760,17 +754,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -779,12 +773,12 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -792,7 +786,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -800,7 +794,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -808,7 +802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -816,7 +810,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -824,7 +818,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -833,7 +827,7 @@
         <v>62.900000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -842,17 +836,17 @@
         <v>8.0795024572267984</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -860,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -868,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>43</v>
       </c>
@@ -879,7 +873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -890,7 +884,7 @@
         <v>164.3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -899,7 +893,7 @@
         <v>26994.490000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
@@ -908,7 +902,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>44</v>
       </c>
